--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLTForOne.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLTForOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530850B0-743F-480E-8412-636AD9FDE72F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8E9A03-C3E6-4C86-880E-49A1F32BCAC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO  ĐỐI TÁC</t>
-  </si>
-  <si>
     <t>Thời gian</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Loại tiền</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT - THEO  ĐỐI TÁC</t>
   </si>
 </sst>
 </file>
@@ -178,10 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -207,10 +206,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +529,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:I35"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -560,91 +559,90 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
+      <c r="B35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="12"/>
+      <c r="C36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>10</v>
+      <c r="I36" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C35:I35"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
